--- a/branches/pt-branch/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/pt-branch/StructureDefinition-IntMedicationRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="478">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-20T14:38:33+00:00</t>
+    <t>2022-10-06T17:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -281,7 +281,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -696,8 +696,8 @@
     <t>MedicationRequest.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference
-</t>
+    <t>CodeableConcept
+Reference(Medication)</t>
   </si>
   <si>
     <t>Medication to be taken</t>
@@ -707,13 +707,16 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying substance or product that can be ordered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
 </t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1160,6 +1163,10 @@
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1825,46 +1832,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.28125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.28515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.62890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="82.3671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="161.5859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="128.4140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="128.41796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4091,26 +4098,26 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>216</v>
@@ -4128,19 +4135,19 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
@@ -4148,7 +4155,7 @@
         <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>78</v>
@@ -4170,7 +4177,7 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>218</v>
@@ -4244,24 +4251,24 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4284,16 +4291,16 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4343,7 +4350,7 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>86</v>
@@ -4358,24 +4365,24 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4398,16 +4405,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4457,7 +4464,7 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -4472,24 +4479,24 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4512,13 +4519,13 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4569,7 +4576,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4584,16 +4591,16 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4601,7 +4608,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4624,13 +4631,13 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4681,7 +4688,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4696,24 +4703,24 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4736,13 +4743,13 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4793,7 +4800,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4808,16 +4815,16 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4825,7 +4832,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4848,13 +4855,13 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4905,7 +4912,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4920,16 +4927,16 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4937,7 +4944,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4963,13 +4970,13 @@
         <v>171</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4998,10 +5005,10 @@
         <v>175</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>78</v>
@@ -5019,7 +5026,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -5034,13 +5041,13 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5051,7 +5058,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5074,13 +5081,13 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5131,7 +5138,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5152,10 +5159,10 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5163,7 +5170,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5189,13 +5196,13 @@
         <v>171</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5224,10 +5231,10 @@
         <v>175</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>78</v>
@@ -5245,7 +5252,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5260,24 +5267,24 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5300,16 +5307,16 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5359,7 +5366,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5374,16 +5381,16 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5391,7 +5398,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5414,13 +5421,13 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5471,7 +5478,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5486,13 +5493,13 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5503,7 +5510,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5529,10 +5536,10 @@
         <v>100</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5583,7 +5590,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5604,7 +5611,7 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5615,7 +5622,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5638,13 +5645,13 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5695,7 +5702,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5710,13 +5717,13 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5727,7 +5734,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5753,14 +5760,14 @@
         <v>150</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
@@ -5809,7 +5816,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -5824,13 +5831,13 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5841,7 +5848,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5867,13 +5874,13 @@
         <v>171</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5902,10 +5909,10 @@
         <v>175</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>78</v>
@@ -5923,7 +5930,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5944,7 +5951,7 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5955,7 +5962,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5978,13 +5985,13 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6035,7 +6042,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -6050,13 +6057,13 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6067,7 +6074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6090,13 +6097,13 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6147,7 +6154,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6162,13 +6169,13 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6179,7 +6186,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6202,16 +6209,16 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6261,7 +6268,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6276,13 +6283,13 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6293,7 +6300,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6316,13 +6323,13 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6373,7 +6380,7 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -6391,10 +6398,10 @@
         <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6405,7 +6412,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6428,13 +6435,13 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>365</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6485,7 +6492,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6506,7 +6513,7 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6517,7 +6524,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6543,10 +6550,10 @@
         <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>146</v>
@@ -6599,7 +6606,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6620,7 +6627,7 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6631,11 +6638,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6657,10 +6664,10 @@
         <v>131</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>146</v>
@@ -6715,7 +6722,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6747,7 +6754,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6770,16 +6777,16 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6829,7 +6836,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6850,7 +6857,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6861,7 +6868,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6884,13 +6891,13 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>365</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6941,7 +6948,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -6962,7 +6969,7 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6973,7 +6980,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6999,10 +7006,10 @@
         <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>146</v>
@@ -7055,7 +7062,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7076,7 +7083,7 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7087,11 +7094,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7113,10 +7120,10 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>146</v>
@@ -7171,7 +7178,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7203,7 +7210,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7226,13 +7233,13 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7283,7 +7290,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7304,7 +7311,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7315,7 +7322,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7338,13 +7345,13 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7395,7 +7402,7 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7416,7 +7423,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7427,7 +7434,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7450,13 +7457,13 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7507,7 +7514,7 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7528,7 +7535,7 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7539,7 +7546,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7562,19 +7569,19 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>78</v>
@@ -7623,7 +7630,7 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -7641,10 +7648,10 @@
         <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7655,7 +7662,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7678,16 +7685,16 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7737,7 +7744,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7755,21 +7762,21 @@
         <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7792,13 +7799,13 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7849,7 +7856,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7867,21 +7874,21 @@
         <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7904,16 +7911,16 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7963,7 +7970,7 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -7981,10 +7988,10 @@
         <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -7995,7 +8002,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8018,13 +8025,13 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8075,7 +8082,7 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -8096,10 +8103,10 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8107,7 +8114,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8130,13 +8137,13 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8187,7 +8194,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -8205,10 +8212,10 @@
         <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8219,7 +8226,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8242,13 +8249,13 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>365</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8299,7 +8306,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8320,7 +8327,7 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8331,7 +8338,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8357,10 +8364,10 @@
         <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>146</v>
@@ -8413,7 +8420,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -8434,7 +8441,7 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8445,11 +8452,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8471,10 +8478,10 @@
         <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>146</v>
@@ -8529,7 +8536,7 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -8561,7 +8568,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8584,16 +8591,16 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8622,10 +8629,10 @@
         <v>175</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>78</v>
@@ -8643,7 +8650,7 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>86</v>
@@ -8661,21 +8668,21 @@
         <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8701,10 +8708,10 @@
         <v>171</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8734,10 +8741,10 @@
         <v>175</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>78</v>
@@ -8755,7 +8762,7 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -8773,21 +8780,21 @@
         <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8810,13 +8817,13 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8867,7 +8874,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -8882,13 +8889,13 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -8899,11 +8906,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8922,16 +8929,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8981,7 +8988,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -9002,7 +9009,7 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9013,7 +9020,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9036,16 +9043,16 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9095,7 +9102,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -9110,13 +9117,13 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>

--- a/branches/pt-branch/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/pt-branch/StructureDefinition-IntMedicationRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T17:30:01+00:00</t>
+    <t>2022-10-06T17:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
